--- a/report/reliability/by-nivel/Graduação (bacharelado).xlsx
+++ b/report/reliability/by-nivel/Graduação (bacharelado).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7912608143726374</v>
+        <v>0.7544139664234774</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8060302931118427</v>
+        <v>0.781564445680207</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8959521490704625</v>
+        <v>0.8837173467714334</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.25721633817107303</v>
+        <v>0.21582864615326378</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.155444198183994</v>
+        <v>3.5780093039981264</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.006201554936545005</v>
+        <v>0.006812121167522188</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5051228204149165</v>
+        <v>1.8967990358895976</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7597216440668129</v>
+        <v>0.6310358949923878</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.19421850654293005</v>
+        <v>0.1427257306212756</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7674262875006768</v>
+        <v>0.7562764358280365</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7786568238543012</v>
+        <v>0.7793807200419326</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8727540241254738</v>
+        <v>0.8827192591701585</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.24231316600333028</v>
+        <v>0.22743608401976903</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.5178713769868</v>
+        <v>3.532695420772236</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.006919648481996603</v>
+        <v>0.006921984468503794</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.035796199608450714</v>
+        <v>0.051455227461224544</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1898352288250452</v>
+        <v>0.15929450187129646</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7715182578900767</v>
+        <v>0.730907418571995</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7846086393991961</v>
+        <v>0.7564125330765162</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8767131542436084</v>
+        <v>0.8659235220573376</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.24877302850165528</v>
+        <v>0.20557693083540654</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.6427117467044217</v>
+        <v>3.105301527332367</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.006801608379124514</v>
+        <v>0.00742868670955157</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.035946710397346704</v>
+        <v>0.05258184947400277</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.193059816911055</v>
+        <v>0.1281121601362626</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7688493712298888</v>
+        <v>0.7372813671423201</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7797404411177435</v>
+        <v>0.7625217570469098</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8738807333992193</v>
+        <v>0.8683715506469507</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2434714029580037</v>
+        <v>0.2110926719257383</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.5400980782612375</v>
+        <v>3.2109120716272668</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.006880181471560187</v>
+        <v>0.0072480104096945665</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.036290869132183615</v>
+        <v>0.051980770446247056</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.19298330853458204</v>
+        <v>0.1329741841186836</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7697876892032501</v>
+        <v>0.7422387019749094</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7830027440197608</v>
+        <v>0.7603398817844653</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8762082263779066</v>
+        <v>0.8635499016931982</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2470061583336137</v>
+        <v>0.20909935204791646</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.608353204664782</v>
+        <v>3.1725757603969194</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.006848327783755118</v>
+        <v>0.007258248191539053</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03630330486908618</v>
+        <v>0.03962450009359691</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.19394186588254309</v>
+        <v>0.1427257306212756</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.776520725333118</v>
+        <v>0.7231838674454486</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.796979738308702</v>
+        <v>0.7571330678900138</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8599028333599311</v>
+        <v>0.8615653400764112</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.26301202891858916</v>
+        <v>0.20621696632522385</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.925616742237022</v>
+        <v>3.1174810885622497</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.006624632787970777</v>
+        <v>0.007646363951392383</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03267602721300255</v>
+        <v>0.039873172514912805</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.19738469998988584</v>
+        <v>0.13807538763066793</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.779052438713372</v>
+        <v>0.7260852389209677</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7975799274324841</v>
+        <v>0.7578376293020309</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8603584601385189</v>
+        <v>0.8618109133780969</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2637324700907288</v>
+        <v>0.20684549076686176</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.9402215270249776</v>
+        <v>3.129460729665655</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.006546221381984305</v>
+        <v>0.00755740162564948</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03251016785942591</v>
+        <v>0.039741188667393935</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20424414606134275</v>
+        <v>0.13807538763066793</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7879305832328106</v>
+        <v>0.7556577009436859</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8062798394626486</v>
+        <v>0.7853099367323331</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8870032545323221</v>
+        <v>0.8878150862365519</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.27450612786932505</v>
+        <v>0.2336125982499259</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.16208533601328</v>
+        <v>3.6578774293491176</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.006322609922199582</v>
+        <v>0.006928892765194595</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03754993138308571</v>
+        <v>0.05218948147659725</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2047534585867167</v>
+        <v>0.15929450187129646</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7948383784848796</v>
+        <v>0.7468496109270545</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8062340132621019</v>
+        <v>0.7755879989054176</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8870786361313016</v>
+        <v>0.8716964786624015</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.274447706562242</v>
+        <v>0.22360698883939925</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.160864488320499</v>
+        <v>3.4560896704384945</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.006078461945456791</v>
+        <v>0.006933274246644347</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.037519103237076024</v>
+        <v>0.0516022737454551</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2047534585867167</v>
+        <v>0.15929450187129646</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7814320775039892</v>
+        <v>0.7561934145167347</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7979112523872482</v>
+        <v>0.7770185128824437</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8973908885686238</v>
+        <v>0.8772008183950643</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.26413140465929974</v>
+        <v>0.22504035345616535</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.9483210312937778</v>
+        <v>3.4846772390247738</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.006568185519700135</v>
+        <v>0.006598777374928453</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04290306082468698</v>
+        <v>0.05251830489416569</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.193059816911055</v>
+        <v>0.15929450187129646</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7774351065597428</v>
+        <v>0.7376543915761307</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7940517605693913</v>
+        <v>0.7705863152154712</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8950162060105274</v>
+        <v>0.8834358672316002</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.25953794081220327</v>
+        <v>0.21869597387052117</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.8555889711158975</v>
+        <v>3.358937876523041</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.006658736236594441</v>
+        <v>0.00730579288783944</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.042881851611966115</v>
+        <v>0.05710987547347485</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.193059816911055</v>
+        <v>0.1329741841186836</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7701147957994962</v>
+        <v>0.736459423425501</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7869337992134211</v>
+        <v>0.7697903617239794</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8716736399089642</v>
+        <v>0.882386367082199</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.25136338488033827</v>
+        <v>0.21792855917340814</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.6933769706705637</v>
+        <v>3.343866779378729</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.006853480087322522</v>
+        <v>0.007296024338080719</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.038174927511879696</v>
+        <v>0.05692312065578712</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1898352288250452</v>
+        <v>0.13852155497961127</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7727124337283604</v>
+        <v>0.7251373789395674</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7895297332941228</v>
+        <v>0.7607615968554483</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8736140333939275</v>
+        <v>0.8585518767977348</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2543012384635468</v>
+        <v>0.2094825688952221</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.7512649442187245</v>
+        <v>3.1799309260385917</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.006780224633135219</v>
+        <v>0.0076021815280306665</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.0381476622453802</v>
+        <v>0.05259164187699084</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.193059816911055</v>
+        <v>0.1311231832757342</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7277976268660538</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7625708875288261</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8601067136779377</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2111378615868709</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.211783422815977</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.007527258408115303</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05279077687186755</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.13202021114605414</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>2619.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6398553558963621</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6858194044755678</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.671290741208431</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5604319186417536</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.4852997327224133</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0924045078407922</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5906854511198136</v>
+        <v>0.2888994840984491</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6334073572233261</v>
+        <v>0.4133582067615458</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6110444072400679</v>
+        <v>0.34757669172050837</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4939949266896447</v>
+        <v>0.2696089855788505</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.993508972890416</v>
+        <v>0.9698127627053879</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2055527330267017</v>
+        <v>0.17113491496008829</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6292624574442566</v>
+        <v>0.5686546588891757</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6764220573937411</v>
+        <v>0.6245425759770153</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6595115381840951</v>
+        <v>0.6003368598286676</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5517847764262384</v>
+        <v>0.46828851549223766</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.556701030927835</v>
+        <v>3.487963316774933</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.048905336641853</v>
+        <v>1.088561398885301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6070909038379944</v>
+        <v>0.5154286128110361</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6477428454415323</v>
+        <v>0.5712542215246179</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6260809485579322</v>
+        <v>0.5424749773465785</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.510423376744231</v>
+        <v>0.39552784561319493</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.975563192058037</v>
+        <v>3.996560947649981</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2345973948555673</v>
+        <v>1.2009439853130752</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5798034797459717</v>
+        <v>0.6093300456592411</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5178793312211417</v>
+        <v>0.5905119666665299</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5388770705456823</v>
+        <v>0.6193836403610326</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4401062550482811</v>
+        <v>0.5769019733533541</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.8064146620847652</v>
+        <v>0.20596102407336644</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.645287763099825</v>
+        <v>0.40447941398744097</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5743988362203758</v>
+        <v>0.6453117114756791</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5120340370269644</v>
+        <v>0.6183591026259401</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5326514163152681</v>
+        <v>0.6509353815933103</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.42529764395279873</v>
+        <v>0.5030890183957002</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.8491790759831997</v>
+        <v>0.8070309514711502</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.729780687845073</v>
+        <v>1.6457654204034573</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4296845574658679</v>
+        <v>0.6391667246153492</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.42462204323953023</v>
+        <v>0.6122868391386812</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.364646477402972</v>
+        <v>0.6446768922111538</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3058907577330735</v>
+        <v>0.48649841212057515</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.6414662084765177</v>
+        <v>0.8498280473824991</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2723685032277015</v>
+        <v>1.7302823679583277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.44286253633803124</v>
+        <v>0.2675701504407973</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.425096044088336</v>
+        <v>0.35368602958959666</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3648963644468034</v>
+        <v>0.26671567905017307</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.2808854453148793</v>
+        <v>0.24005949521938602</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.741504390988927</v>
+        <v>0.938479174627436</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6451886552906743</v>
+        <v>0.24032911550530692</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5287908772113448</v>
+        <v>0.4434886646067132</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5087972843152906</v>
+        <v>0.45035163663104644</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.41869235034671193</v>
+        <v>0.4062462137091508</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3902885933986916</v>
+        <v>0.3064845708897707</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.459717449408171</v>
+        <v>2.6434849063813526</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5407007065844702</v>
+        <v>1.2707560262725603</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5399440960003722</v>
+        <v>0.45285696414137844</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5460663197270986</v>
+        <v>0.4365036984289357</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.46319130804424397</v>
+        <v>0.3806352920920766</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4224520703774952</v>
+        <v>0.2724329148702188</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3799159984726996</v>
+        <v>2.7435995414596865</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3459873848983313</v>
+        <v>1.6440695123029907</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6042811962472304</v>
+        <v>0.5499745889216155</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6123905196428232</v>
+        <v>0.49779764653193254</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5962034826102961</v>
+        <v>0.4114666393782934</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4990846583691058</v>
+        <v>0.39783347984557826</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.1901489117983965</v>
+        <v>1.4608330149025601</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3254438180153854</v>
+        <v>1.5407605880255903</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
+        <v>28</v>
+      </c>
+      <c r="B38" t="n" s="84">
+        <v>2617.0</v>
+      </c>
+      <c r="C38" t="n" s="85">
+        <v>0.5342482085011103</v>
+      </c>
+      <c r="D38" t="n" s="86">
+        <v>0.5052117484127152</v>
+      </c>
+      <c r="E38" t="n" s="87">
+        <v>0.4232234260155987</v>
+      </c>
+      <c r="F38" t="n" s="88">
+        <v>0.4011327562954869</v>
+      </c>
+      <c r="G38" t="n" s="89">
+        <v>2.380970576996561</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.345960705109813</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
         <v>29</v>
       </c>
-      <c r="B38" t="n" s="84">
-        <v>2619.0</v>
-      </c>
-      <c r="C38" t="n" s="85">
-        <v>0.579302184215801</v>
-      </c>
-      <c r="D38" t="n" s="86">
-        <v>0.5885542660285676</v>
-      </c>
-      <c r="E38" t="n" s="87">
-        <v>0.5693998395704805</v>
-      </c>
-      <c r="F38" t="n" s="88">
-        <v>0.4757917094591748</v>
-      </c>
-      <c r="G38" t="n" s="89">
-        <v>1.9820542191676211</v>
-      </c>
-      <c r="H38" t="n" s="90">
-        <v>1.2614875579194857</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
+      <c r="B39" t="n" s="84">
+        <v>2617.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6140586159830165</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5868096545280672</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5734171055367078</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.49735614711654086</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.1910584638899504</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3255416595311262</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>2617.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5934653108002302</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5708176378198032</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5549391051461531</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.47940073198562416</v>
+      </c>
+      <c r="G40" t="n" s="89">
+        <v>1.9828047382499046</v>
+      </c>
+      <c r="H40" t="n" s="90">
+        <v>1.2616772932132672</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.030927835051546393</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.054600992745322645</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.007636502481863307</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.32646048109965636</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4658266513936617</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.1145475372279496</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.030927835051546393</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.005345551737304314</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.044673539518900345</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2542955326460481</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.18785796105383734</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4768995799923635</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.01794578083237877</v>
+        <v>0.030187237294612153</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.054982817869415807</v>
+        <v>0.9698127627053879</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.018709431080565102</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3043146239022528</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.46888125238640704</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.13516609392898052</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.01794578083237877</v>
+        <v>0.030187237294612153</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.018327605956471937</v>
+        <v>0.05464272067252579</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.059182894234440626</v>
+        <v>0.007642338555598013</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.30736922489499807</v>
+        <v>0.32670997325181506</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.06911034746086292</v>
+        <v>0.4661826518914788</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5280641466208477</v>
+        <v>0.1146350783339702</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7941962581137839</v>
+        <v>0.030187237294612153</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.009545628102329133</v>
+        <v>0.005349636988918609</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0019091256204658267</v>
+        <v>0.044707680550248374</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.044291714394807176</v>
+        <v>0.2544898739014138</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09011072928598701</v>
+        <v>0.18800152846771112</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.05994654448262696</v>
+        <v>0.4772640427970959</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.7941962581137839</v>
+        <v>0.7940389759266335</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0038182512409316535</v>
+        <v>0.20596102407336644</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.006491027109583811</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.050400916380297825</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.044291714394807176</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.10080183276059565</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.06223749522718595</v>
+        <v>0.7940389759266335</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.19854906452844598</v>
+        <v>0.009552923194497517</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.05651011836578847</v>
+        <v>0.0019105846388995033</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.42802596410843835</v>
+        <v>0.04432556362246848</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.22756777395952654</v>
+        <v>0.09017959495605656</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.027109583810614738</v>
+        <v>0.0599923576614444</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.06223749522718595</v>
+        <v>0.7940389759266335</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.235586101565483</v>
+        <v>0.0038211692777990066</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.20389461626575028</v>
+        <v>0.006495987772258311</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.12638411607483774</v>
+        <v>0.05043943446694689</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.14051164566628485</v>
+        <v>0.04432556362246848</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.2313860252004582</v>
+        <v>0.10087886893389378</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4482626956853761</v>
+        <v>0.061520825372564</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.12752959144711723</v>
+        <v>0.938479174627436</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.07063764795723558</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.22336769759450173</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.13020236731576937</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.16876670484917908</v>
+        <v>0.061520825372564</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.10614738449789997</v>
+        <v>0.19870080244554833</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.07674684994272624</v>
+        <v>0.05655330531142529</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.47308132875143183</v>
+        <v>0.42835307604126865</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.17525773195876287</v>
+        <v>0.2277416889568208</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.027130301872372947</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.18136693394425354</v>
+        <v>0.061520825372564</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.06872852233676977</v>
+        <v>0.2357661444401987</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.31653302787323406</v>
+        <v>0.20405043943446693</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.24513172966781213</v>
+        <v>0.1264807030951471</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.1882397861779305</v>
+        <v>0.14061902942300344</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2315628582346198</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.20351279114165713</v>
+        <v>0.44784103935804354</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.06643757159221077</v>
+        <v>0.12762705387848683</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4020618556701031</v>
+        <v>0.07069163163928162</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.2004581901489118</v>
+        <v>0.22353840275124187</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.12752959144711723</v>
+        <v>0.13030187237294613</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.16889568207871608</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.10546427206725258</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.07680550248376003</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4734428735192969</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.1753916698509744</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.1815055406954528</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.06801681314482232</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.31677493312953764</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.24531906763469621</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.18838364539549102</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.20366832250668704</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.06572411157814291</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.40236912495223537</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.20061138708444784</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.12762705387848683</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8651534774143524</v>
+        <v>0.8731704345600525</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8672688927076992</v>
+        <v>0.9886535972530921</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.871363386532734</v>
+        <v>0.9833329173561147</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6202782398813761</v>
+        <v>0.9667160968984353</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.534028913039938</v>
+        <v>87.13365983086783</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.004377327168814895</v>
+        <v>5.887921567826079E-4</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.7527682321496756</v>
+        <v>0.6209400076423386</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9686239738507688</v>
+        <v>1.2488824836132204</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6307367262702919</v>
+        <v>0.9645515839623141</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8228115021236359</v>
+        <v>0.9854730424365954</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8249457092428809</v>
+        <v>0.9860996313842105</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7764339914535556</v>
+        <v>0.9725804052428411</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6110217507969978</v>
+        <v>0.9725804052428413</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.712513504667308</v>
+        <v>70.9405382432882</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.005980298654927007</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.01196003624570087</v>
-      </c>
+        <v>5.552039907156378E-4</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.614281685093014</v>
+        <v>0.9725804052428412</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8313875681678783</v>
+        <v>0.5990381371129676</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8354824054480788</v>
+        <v>0.9819559759453149</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7882199214978047</v>
+        <v>0.9645515839623141</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6286382876072962</v>
+        <v>0.9645515839623142</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.078377225995745</v>
+        <v>54.4200103574097</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.005767267599321253</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.010129736812293967</v>
-      </c>
+        <v>0.0020286579219546295</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6471917674475699</v>
+        <v>0.9645515839623141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8274313409108747</v>
+        <v>0.6172537657698203</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.829497883327892</v>
+        <v>0.981159759864564</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7792393033016001</v>
+        <v>0.9630163014901499</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.618564701514236</v>
+        <v>0.9630163014901503</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.865029827888272</v>
+        <v>52.077879730372224</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.005892487953185006</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.010154329173924627</v>
-      </c>
+        <v>0.0020885786511963796</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.614281685093014</v>
+        <v>0.9630163014901502</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8304983235634582</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8320795543990037</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7882408655398683</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6228882196069748</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.955200966868247</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.005779891276836416</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012690882521693739</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6471917674475699</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>2617.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9764262554677147</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9868663031054219</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9754218328414364</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9704744246147292</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.20596102407336644</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.40447941398744097</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8473202767750996</v>
+        <v>0.9923870513812902</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8539091295342108</v>
+        <v>0.9895727726000425</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8026949745765539</v>
+        <v>0.9825670425795426</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7288644759798221</v>
+        <v>0.9760965980793614</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.4852997327224133</v>
+        <v>0.8070309514711502</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0924045078407922</v>
+        <v>1.6457654204034573</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8456670012421966</v>
+        <v>0.9931713286972822</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8382860943520379</v>
+        <v>0.9900903074948115</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7780352586312929</v>
+        <v>0.9837149354644529</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7076396055377357</v>
+        <v>0.9767338750940733</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.993508972890416</v>
+        <v>0.8498280473824991</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2055527330267017</v>
+        <v>1.7302823679583277</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>2619.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8378079083243839</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8472197452527374</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7936571257020751</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.720395795661227</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.556701030927835</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.048905336641853</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>2619.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8509673348952241</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.843385479982498</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7833502043587753</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7118390299008303</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.975563192058037</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2345973948555673</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7940389759266335</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.20596102407336644</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7940389759266335</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.009552923194497517</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0019105846388995033</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.04432556362246848</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09017959495605656</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0599923576614444</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.030927835051546393</v>
+        <v>0.7940389759266335</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.054600992745322645</v>
+        <v>0.0038211692777990066</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.007636502481863307</v>
+        <v>0.006495987772258311</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.32646048109965636</v>
+        <v>0.05043943446694689</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4658266513936617</v>
+        <v>0.04432556362246848</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.1145475372279496</v>
+        <v>0.10087886893389378</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.030927835051546393</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.005345551737304314</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.044673539518900345</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2542955326460481</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.18785796105383734</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4768995799923635</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.01794578083237877</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.054982817869415807</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.018709431080565102</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3043146239022528</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.46888125238640704</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.13516609392898052</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.01794578083237877</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.018327605956471937</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.059182894234440626</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.30736922489499807</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06911034746086292</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5280641466208477</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7869522008572929</v>
+        <v>0.6624005441114912</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8025944703884369</v>
+        <v>0.7810380960284001</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6702779054718393</v>
+        <v>0.7236900088415446</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6702779054718393</v>
+        <v>0.5431707102378351</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.065714227801575</v>
+        <v>3.5670044964977277</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.007858372665915042</v>
+        <v>0.005993440034573287</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.6914852997327223</v>
+        <v>2.108521207489492</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3352653607886114</v>
+        <v>0.933087100584562</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6702779054718393</v>
+        <v>0.5327168150643796</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6702779054718393</v>
+        <v>0.7862894282141648</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6702779054718393</v>
+        <v>0.8019982960414285</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.449272470563716</v>
+        <v>0.6694467072887923</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6702779054718393</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6702779054718393</v>
-      </c>
+        <v>0.6694467072887924</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.050461586983275</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.007884689443536244</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6702779054718393</v>
+        <v>0.6694467072887924</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.449272470563716</v>
+        <v>0.21798536738477048</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6702779054718393</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.449272470563716</v>
-      </c>
+        <v>0.5988006095459051</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4273486083603336</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4273486083603335</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.4925262196140339</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.007971881133334469</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6702779054718393</v>
+        <v>0.4273486083603335</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.3257149775350425</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6951275145265547</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5327168150643795</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5327168150643795</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.2800598533746688</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.00830581506281721</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5327168150643796</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>2619.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8893745688869008</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9138593725163187</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7481812534525158</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6702779054718394</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.6414662084765177</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2723685032277015</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B18" t="n" s="314">
+        <v>2617.0</v>
+      </c>
+      <c r="C18" t="n" s="315">
+        <v>0.5786787520195442</v>
+      </c>
+      <c r="D18" t="n" s="316">
+        <v>0.783460761013963</v>
+      </c>
+      <c r="E18" t="n" s="317">
+        <v>0.5886978966960502</v>
+      </c>
+      <c r="F18" t="n" s="318">
+        <v>0.5171869675684225</v>
+      </c>
+      <c r="G18" t="n" s="319">
+        <v>0.938479174627436</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.24032911550530692</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>2619.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9354055096385989</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9138593725163187</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7481812534525156</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.6702779054718394</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.741504390988927</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.6451886552906743</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B19" t="n" s="314">
+        <v>2617.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8928785273640178</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8802301639939495</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8103894995315774</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.69799998019386</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.6434849063813526</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2707560262725603</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>2617.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9279152543890551</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8381132762490545</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7291967302676001</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6745048262335018</v>
+      </c>
+      <c r="G20" t="n" s="319">
+        <v>2.7435995414596865</v>
+      </c>
+      <c r="H20" t="n" s="320">
+        <v>1.6440695123029907</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
-        <v>0.06223749522718595</v>
-      </c>
-      <c r="C23" t="n" s="340">
-        <v>0.19854906452844598</v>
-      </c>
-      <c r="D23" t="n" s="341">
-        <v>0.05651011836578847</v>
-      </c>
-      <c r="E23" t="n" s="342">
-        <v>0.42802596410843835</v>
-      </c>
-      <c r="F23" t="n" s="343">
-        <v>0.22756777395952654</v>
-      </c>
-      <c r="G23" t="n" s="344">
-        <v>0.027109583810614738</v>
-      </c>
-      <c r="H23" t="n" s="345">
+      <c r="B25" t="n" s="339">
+        <v>0.061520825372564</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.938479174627436</v>
+      </c>
+      <c r="D25" t="n" s="341">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
-        <v>0.06223749522718595</v>
-      </c>
-      <c r="C24" t="n" s="340">
-        <v>0.235586101565483</v>
-      </c>
-      <c r="D24" t="n" s="341">
-        <v>0.20389461626575028</v>
-      </c>
-      <c r="E24" t="n" s="342">
-        <v>0.12638411607483774</v>
-      </c>
-      <c r="F24" t="n" s="343">
-        <v>0.14051164566628485</v>
-      </c>
-      <c r="G24" t="n" s="344">
-        <v>0.2313860252004582</v>
-      </c>
-      <c r="H24" t="n" s="345">
+      <c r="B26" t="n" s="339">
+        <v>0.061520825372564</v>
+      </c>
+      <c r="C26" t="n" s="340">
+        <v>0.19870080244554833</v>
+      </c>
+      <c r="D26" t="n" s="341">
+        <v>0.05655330531142529</v>
+      </c>
+      <c r="E26" t="n" s="342">
+        <v>0.42835307604126865</v>
+      </c>
+      <c r="F26" t="n" s="343">
+        <v>0.2277416889568208</v>
+      </c>
+      <c r="G26" t="n" s="344">
+        <v>0.027130301872372947</v>
+      </c>
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
+        <v>0.061520825372564</v>
+      </c>
+      <c r="C27" t="n" s="340">
+        <v>0.2357661444401987</v>
+      </c>
+      <c r="D27" t="n" s="341">
+        <v>0.20405043943446693</v>
+      </c>
+      <c r="E27" t="n" s="342">
+        <v>0.1264807030951471</v>
+      </c>
+      <c r="F27" t="n" s="343">
+        <v>0.14061902942300344</v>
+      </c>
+      <c r="G27" t="n" s="344">
+        <v>0.2315628582346198</v>
+      </c>
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8952956600138897</v>
+        <v>0.7012606105664105</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8959002161555567</v>
+        <v>0.8327002065055692</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8114304787163873</v>
+        <v>0.7776871496048623</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8114304787163875</v>
+        <v>0.6239326121659579</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.606167881138958</v>
+        <v>4.977293690044441</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.004077334481114263</v>
+        <v>0.004709893186264322</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.0861015654830086</v>
+        <v>2.818112342376767</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2310184621512434</v>
+        <v>0.7445233635370011</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8114304787163875</v>
+        <v>0.5872383600974631</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8114304787163874</v>
+        <v>0.834284346205628</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8114304787163874</v>
+        <v>0.8366285473351145</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6584194217899056</v>
+        <v>0.7191413760572214</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8114304787163874</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8114304787163874</v>
-      </c>
+        <v>0.7191413760572214</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.121020433424451</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.006414745082415484</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8114304787163874</v>
+        <v>0.7191413760572213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6584194217899056</v>
+        <v>0.2818347994232737</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8114304787163874</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6584194217899056</v>
-      </c>
+        <v>0.7399498082460712</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5872383600974631</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5872383600974631</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.845411507891695</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.006435188258338936</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8114304787163874</v>
+        <v>0.5872383600974631</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.2956865176408454</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7223860516487342</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5654181003431893</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5654181003431893</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.6021244823574103</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.007076099769247031</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5654181003431894</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>2619.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9541096836710783</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9516907267375225</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8572776389555175</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8114304787163875</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.1901489117983965</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3254438180153854</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9492112188144675</v>
+        <v>0.6679296145664249</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9516907267375225</v>
+        <v>0.8289512012285516</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8572776389555175</v>
+        <v>0.6724356570204651</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8114304787163874</v>
+        <v>0.6220810926368202</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.9820542191676211</v>
+        <v>0.9698127627053879</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2614875579194857</v>
+        <v>0.17113491496008829</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>2617.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9173532078456555</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8797447976685184</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.800406555399027</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7338151481467043</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.487963316774933</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.088561398885301</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>2617.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9331565296330788</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8881474066620231</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8172249693504545</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7399909515304266</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.996560947649981</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2009439853130752</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.18136693394425354</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.06872852233676977</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.31653302787323406</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.24513172966781213</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1882397861779305</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.030187237294612153</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9698127627053879</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.20351279114165713</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.06643757159221077</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4020618556701031</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.2004581901489118</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.12752959144711723</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.030187237294612153</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.05464272067252579</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.007642338555598013</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.32670997325181506</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4661826518914788</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.1146350783339702</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.030187237294612153</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.005349636988918609</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.044707680550248374</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2544898739014138</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.18800152846771112</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.4772640427970959</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9854756275551204</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9861022238788273</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9725854490492306</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9725854490492307</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>70.95395804919715</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>5.548908203540378E-4</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.8277968690339824</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.6759358682098495</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9725854490492306</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5910370908332789</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5948362851992701</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.42332169478460047</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4233216947846006</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.4681380969463818</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.01581257690161238</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.9209017959495607</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2187416857336661</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.4233216947846006</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9725854490492306</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9725854490492306</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9459224557022935</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9725854490492306</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9725854490492306</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9725854490492306</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.42332169478460063</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.42332169478460063</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.17920125727530645</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.42332169478460063</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.42332169478460063</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.42332169478460063</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9459224557022935</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9725854490492306</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9459224557022935</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9725854490492306</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.17920125727530645</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.42332169478460063</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.17920125727530645</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.42332169478460063</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
-        <v>2619.0</v>
-      </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9927728600076857</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9931227137290817</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9794151072838125</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9725854490492305</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.8064146620847652</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.645287763099825</v>
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
+        <v>2617.0</v>
+      </c>
+      <c r="C17" t="n" s="545">
+        <v>0.8658664011954423</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8435999332576433</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5488729142797572</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4233216947846007</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.4608330149025601</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5407605880255903</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
-        <v>2619.0</v>
-      </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9934639173549106</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9931227137290817</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9794151072838125</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9725854490492305</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.8491790759831997</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.729780687845073</v>
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
+        <v>2617.0</v>
+      </c>
+      <c r="C18" t="n" s="545">
+        <v>0.8197791672676049</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8435999332576433</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.548872914279757</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4233216947846006</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.380970576996561</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.345960705109813</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7941962581137839</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.009545628102329133</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0019091256204658267</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.044291714394807176</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.09011072928598701</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.05994654448262696</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.44784103935804354</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.12762705387848683</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.07069163163928162</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.22353840275124187</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.13030187237294613</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7941962581137839</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0038182512409316535</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.006491027109583811</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.050400916380297825</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.044291714394807176</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.10080183276059565</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.16889568207871608</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.10546427206725258</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.07680550248376003</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4734428735192969</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.1753916698509744</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5914604987413645</v>
+        <v>0.8952387762749938</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5952579690842466</v>
+        <v>0.8958414550232412</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4237489560244715</v>
+        <v>0.8113340779716536</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.4237489560244716</v>
+        <v>0.8113340779716536</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.4707095473564709</v>
+        <v>8.60074855330528</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.01579024809994545</v>
+        <v>0.004081159773948584</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.9198167239404353</v>
+        <v>2.0869316010699275</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2189084385314206</v>
+        <v>1.231122449230253</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.4237489560244717</v>
+        <v>0.8113340779716536</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.42374895602447166</v>
+        <v>0.8113340779716536</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.42374895602447166</v>
+        <v>0.8113340779716536</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.17956317773182928</v>
+        <v>0.6582629860781132</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.42374895602447166</v>
+        <v>0.8113340779716536</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.42374895602447166</v>
+        <v>0.8113340779716536</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.42374895602447166</v>
+        <v>0.8113340779716536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.17956317773182928</v>
+        <v>0.6582629860781132</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.42374895602447166</v>
+        <v>0.8113340779716536</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.17956317773182928</v>
+        <v>0.6582629860781132</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.42374895602447166</v>
+        <v>0.8113340779716536</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8659639186273582</v>
+        <v>0.9540819617036824</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8437265421996846</v>
+        <v>0.9516654028521929</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5492322522195419</v>
+        <v>0.8572039034120663</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.42374895602447166</v>
+        <v>0.8113340779716538</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.459717449408171</v>
+        <v>2.1910584638899504</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5407007065844702</v>
+        <v>1.3255416595311262</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8199375923871498</v>
+        <v>0.9491884478360536</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8437265421996845</v>
+        <v>0.9516654028521929</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5492322522195421</v>
+        <v>0.8572039034120664</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.42374895602447155</v>
+        <v>0.8113340779716539</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.3799159984726996</v>
+        <v>1.9828047382499046</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3459873848983313</v>
+        <v>1.2616772932132672</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4482626956853761</v>
+        <v>0.1815055406954528</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.12752959144711723</v>
+        <v>0.06801681314482232</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.07063764795723558</v>
+        <v>0.31677493312953764</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.22336769759450173</v>
+        <v>0.24531906763469621</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.13020236731576937</v>
+        <v>0.18838364539549102</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.16876670484917908</v>
+        <v>0.20366832250668704</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.10614738449789997</v>
+        <v>0.06572411157814291</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.07674684994272624</v>
+        <v>0.40236912495223537</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.47308132875143183</v>
+        <v>0.20061138708444784</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.17525773195876287</v>
+        <v>0.12762705387848683</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8042118071936456</v>
+        <v>0.7720290400081596</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8169556465939233</v>
+        <v>0.8022872626921654</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9016973735365261</v>
+        <v>0.8961749434714854</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3085880106648268</v>
+        <v>0.28865332015126083</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.463156778081753</v>
+        <v>4.0578430788858135</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.005922102655156507</v>
+        <v>0.006382765731253851</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.4678503245513554</v>
+        <v>1.8332823844096293</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8184869766760156</v>
+        <v>0.7253679611208452</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.234863127197752</v>
+        <v>0.2038620542465266</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7793012133107957</v>
+        <v>0.758642927624268</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7879339031878729</v>
+        <v>0.7767789421091812</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8759796965841884</v>
+        <v>0.8723681877318997</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2922030391961406</v>
+        <v>0.2788382998770038</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.7155109422602166</v>
+        <v>3.4798640838317176</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.006676138033514859</v>
+        <v>0.006956341769062462</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.03846144343051685</v>
+        <v>0.043572490971049135</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.22947191900944097</v>
+        <v>0.22476752647625575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7839917028612413</v>
+        <v>0.7339872260983094</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7943872779590967</v>
+        <v>0.7734175924361634</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8804358565931585</v>
+        <v>0.8701954544730333</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3003466083576842</v>
+        <v>0.2749773508987841</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.863512286954045</v>
+        <v>3.4134053069334747</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.0065331641461339445</v>
+        <v>0.00739161823271162</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03828466246392943</v>
+        <v>0.044089327326917296</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.23278676279405158</v>
+        <v>0.21866186266485826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7826636216484665</v>
+        <v>0.7375986929299497</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7913780995152773</v>
+        <v>0.7740427347843307</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8780125600816742</v>
+        <v>0.8703512742876214</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.29651009809513246</v>
+        <v>0.27568981023539585</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.7933606092004206</v>
+        <v>3.4256156094185815</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.006587731218208103</v>
+        <v>0.007276179079605346</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03835763897679106</v>
+        <v>0.04388939974685618</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.23061123384577545</v>
+        <v>0.22116396953888975</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7845300713114589</v>
+        <v>0.7772527942118435</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7949651561242267</v>
+        <v>0.8026667066897032</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8806938361822519</v>
+        <v>0.8971296110568425</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.30109137371244343</v>
+        <v>0.3112720293513901</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.8772197988254207</v>
+        <v>4.0675685953690035</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.006515737452124053</v>
+        <v>0.0065266859112391275</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.037996630464948965</v>
+        <v>0.060912178407193714</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.23893245287592768</v>
+        <v>0.22476752647625575</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7835008181113738</v>
+        <v>0.7493865683611615</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7983755600315796</v>
+        <v>0.7773527227886354</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8743645688546031</v>
+        <v>0.8781243363038931</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.305540347849035</v>
+        <v>0.27950482203691196</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.959716193912928</v>
+        <v>3.4914090687517167</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.0065670657820480725</v>
+        <v>0.006936312348215629</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04081220942444022</v>
+        <v>0.0656313141401591</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.22937275446486527</v>
+        <v>0.1939593908173564</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7864907919458123</v>
+        <v>0.7569938050456579</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8016272526179468</v>
+        <v>0.7836478208221601</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.876713359360543</v>
+        <v>0.8801687003377667</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3098696701823689</v>
+        <v>0.2869645591210252</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.041015024478457</v>
+        <v>3.622093494967793</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.006487676541816298</v>
+        <v>0.006708127975143005</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.040321810994051646</v>
+        <v>0.06399182198312052</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.23278676279405158</v>
+        <v>0.19904921816537097</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7883647286229936</v>
+        <v>0.7583768170416718</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8081660668669712</v>
+        <v>0.7947663699511501</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8583642231528523</v>
+        <v>0.899750458113078</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3188445043099468</v>
+        <v>0.3008348853785668</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.212842085172397</v>
+        <v>3.8724957978961796</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.006372828948012993</v>
+        <v>0.006775942027585802</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03235314216504158</v>
+        <v>0.07121313822667821</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2621462540444903</v>
+        <v>0.19311832317853717</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7914651198555731</v>
+        <v>0.7590162519875665</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.808707518499889</v>
+        <v>0.7959319443109292</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8588324384846762</v>
+        <v>0.89924438586113</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3196043084332709</v>
+        <v>0.30234321235019396</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.227596987388234</v>
+        <v>3.9003260045935595</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.006272153365748702</v>
+        <v>0.006690451180570557</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03215966000519895</v>
+        <v>0.06996230192235739</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2621462540444903</v>
+        <v>0.19986880710477917</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7973773267255402</v>
+        <v>0.7426497223305912</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8112310984949279</v>
+        <v>0.7831072188218771</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9057175829121573</v>
+        <v>0.8676341928673189</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3231801712198263</v>
+        <v>0.2863131593929026</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.297482752862928</v>
+        <v>3.610572996335695</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.00623653475934208</v>
+        <v>0.007107762418600039</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04660265144709468</v>
+        <v>0.06464702024472452</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.24968696871059662</v>
+        <v>0.19986880710477917</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7937078965811866</v>
+        <v>0.7458074027580452</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8080557266075785</v>
+        <v>0.785977168733328</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9035290278470228</v>
+        <v>0.8698192493296749</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.31868998529241943</v>
+        <v>0.28979507287043377</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.209845453193309</v>
+        <v>3.6723987066314523</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.0063040523708555165</v>
+        <v>0.007031800294926211</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04638159783461233</v>
+        <v>0.06431924473916173</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.22937275446486527</v>
+        <v>0.19986880710477917</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6627905535429032</v>
+        <v>0.6773209899789648</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7105717385718917</v>
+        <v>0.6587307675750668</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6896603235259245</v>
+        <v>0.6858622243878554</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5772333962032311</v>
+        <v>0.6453697219047934</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.4852997327224133</v>
+        <v>0.20596102407336644</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0924045078407922</v>
+        <v>0.40447941398744097</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6179615146477977</v>
+        <v>0.7086289067067006</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6628707911537146</v>
+        <v>0.681903285850391</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6339715658872295</v>
+        <v>0.712554052222696</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5136498229434809</v>
+        <v>0.563867041965131</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.993508972890416</v>
+        <v>0.8070309514711502</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2055527330267017</v>
+        <v>1.6457654204034573</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6348009161648239</v>
+        <v>0.704128936941642</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6853431458022734</v>
+        <v>0.6776272705258699</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6607549719820305</v>
+        <v>0.7082819107579166</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.548339218995364</v>
+        <v>0.5483316718415102</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.556701030927835</v>
+        <v>0.8498280473824991</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.048905336641853</v>
+        <v>1.7302823679583277</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6141168545821616</v>
+        <v>0.31973135545029624</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6585083289063235</v>
+        <v>0.4640710626108543</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6290195989283204</v>
+        <v>0.385334470271206</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5062354510157804</v>
+        <v>0.2983137111743308</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.975563192058037</v>
+        <v>0.9698127627053879</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2345973948555673</v>
+        <v>0.17113491496008829</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6258488298618422</v>
+        <v>0.5862173458190476</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6324484677883561</v>
+        <v>0.6547304565068535</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6101649384382523</v>
+        <v>0.6184224292606781</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.511205503639747</v>
+        <v>0.4740243582683414</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.1901489117983965</v>
+        <v>3.487963316774933</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3254438180153854</v>
+        <v>1.088561398885301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5993416743563929</v>
+        <v>0.5384254009134157</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6070894669765357</v>
+        <v>0.6099588485716375</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5816648567623506</v>
+        <v>0.5701814930230206</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.48605902820333646</v>
+        <v>0.4046341283845042</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.9820542191676211</v>
+        <v>3.996560947649981</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2614875579194857</v>
+        <v>1.2009439853130752</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6277654364786709</v>
+        <v>0.5817175043087469</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.554519385932941</v>
+        <v>0.5267123745828022</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.574890772891364</v>
+        <v>0.42278319091072125</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.480731937500916</v>
+        <v>0.41341647365067213</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.8064146620847652</v>
+        <v>1.4608330149025601</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.645287763099825</v>
+        <v>1.5407605880255903</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6238111052697165</v>
+        <v>0.5448289434688105</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5500688341152014</v>
+        <v>0.5176597467153107</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5701480191931032</v>
+        <v>0.41692682189745106</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.46673587107051745</v>
+        <v>0.39382297682087036</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.8491790759831997</v>
+        <v>2.380970576996561</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.729780687845073</v>
+        <v>1.345960705109813</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.554219929939386</v>
+        <v>0.6395101660780439</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5291232217709746</v>
+        <v>0.6138683983195399</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4264498837475896</v>
+        <v>0.590872361122764</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.40249844232102133</v>
+        <v>0.5107908111219935</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.459717449408171</v>
+        <v>2.1910584638899504</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5407007065844702</v>
+        <v>1.3255416595311262</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
-        <v>2619.0</v>
+        <v>2617.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.550100467068867</v>
+        <v>0.6169293404226015</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5554244809083715</v>
+        <v>0.5929707630111365</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.45934768816164673</v>
+        <v>0.5670992824690126</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.41925727592203105</v>
+        <v>0.4905095478605785</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.3799159984726996</v>
+        <v>1.9828047382499046</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3459873848983313</v>
+        <v>1.2616772932132672</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.030927835051546393</v>
+        <v>0.7940389759266335</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.054600992745322645</v>
+        <v>0.20596102407336644</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.007636502481863307</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.32646048109965636</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4658266513936617</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.1145475372279496</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.030927835051546393</v>
+        <v>0.7940389759266335</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.005345551737304314</v>
+        <v>0.009552923194497517</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.044673539518900345</v>
+        <v>0.0019105846388995033</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2542955326460481</v>
+        <v>0.04432556362246848</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.18785796105383734</v>
+        <v>0.09017959495605656</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.4768995799923635</v>
+        <v>0.0599923576614444</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.01794578083237877</v>
+        <v>0.7940389759266335</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.054982817869415807</v>
+        <v>0.0038211692777990066</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.018709431080565102</v>
+        <v>0.006495987772258311</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3043146239022528</v>
+        <v>0.05043943446694689</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.46888125238640704</v>
+        <v>0.04432556362246848</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.13516609392898052</v>
+        <v>0.10087886893389378</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.01794578083237877</v>
+        <v>0.030187237294612153</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.018327605956471937</v>
+        <v>0.9698127627053879</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.059182894234440626</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.30736922489499807</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.06911034746086292</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5280641466208477</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.18136693394425354</v>
+        <v>0.030187237294612153</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.06872852233676977</v>
+        <v>0.05464272067252579</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.31653302787323406</v>
+        <v>0.007642338555598013</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.24513172966781213</v>
+        <v>0.32670997325181506</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.1882397861779305</v>
+        <v>0.4661826518914788</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.1146350783339702</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.20351279114165713</v>
+        <v>0.030187237294612153</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.06643757159221077</v>
+        <v>0.005349636988918609</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4020618556701031</v>
+        <v>0.044707680550248374</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.2004581901489118</v>
+        <v>0.2544898739014138</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.12752959144711723</v>
+        <v>0.18800152846771112</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.4772640427970959</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7941962581137839</v>
+        <v>0.44784103935804354</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.009545628102329133</v>
+        <v>0.12762705387848683</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0019091256204658267</v>
+        <v>0.07069163163928162</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.044291714394807176</v>
+        <v>0.22353840275124187</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.09011072928598701</v>
+        <v>0.13030187237294613</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.05994654448262696</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7941962581137839</v>
+        <v>0.16889568207871608</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0038182512409316535</v>
+        <v>0.10546427206725258</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.006491027109583811</v>
+        <v>0.07680550248376003</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.050400916380297825</v>
+        <v>0.4734428735192969</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.044291714394807176</v>
+        <v>0.1753916698509744</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.10080183276059565</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4482626956853761</v>
+        <v>0.1815055406954528</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.12752959144711723</v>
+        <v>0.06801681314482232</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.07063764795723558</v>
+        <v>0.31677493312953764</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.22336769759450173</v>
+        <v>0.24531906763469621</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.13020236731576937</v>
+        <v>0.18838364539549102</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.16876670484917908</v>
+        <v>0.20366832250668704</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.10614738449789997</v>
+        <v>0.06572411157814291</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.07674684994272624</v>
+        <v>0.40236912495223537</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.47308132875143183</v>
+        <v>0.20061138708444784</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.17525773195876287</v>
+        <v>0.12762705387848683</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
